--- a/Documentation/Journal_de_travail/Sacha Jaccard/Journal de travail Sacha.xlsx
+++ b/Documentation/Journal_de_travail/Sacha Jaccard/Journal de travail Sacha.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sacha.JACCARD\Documents\GitHub\I_Shoes\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sacha.JACCARD\Documents\GitHub\I_Shoes\Documentation\Journal_de_travail\Sacha Jaccard\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -56,16 +56,25 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Romain</t>
+    <t>Maquettes</t>
   </si>
   <si>
-    <t>NAME :</t>
+    <t>Documentation</t>
   </si>
   <si>
-    <t>Sacha</t>
+    <t>Remplissage du README.</t>
   </si>
   <si>
-    <t>Alex</t>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>Création des maquettes du site.</t>
+  </si>
+  <si>
+    <t>Remplissage du cahier des charges.</t>
+  </si>
+  <si>
+    <t>Remplissage du journal de travail avec les heures que j'ai noté sur papier.</t>
   </si>
 </sst>
 </file>
@@ -212,9 +221,6 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -259,6 +265,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color theme="7"/>
       </font>
@@ -292,21 +301,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:G1007" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:G1007" totalsRowShown="0" dataDxfId="7">
   <autoFilter ref="A1:G1007"/>
   <sortState ref="A2:H3">
     <sortCondition ref="A1:A6"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Date" dataDxfId="7"/>
-    <tableColumn id="2" name="Début" dataDxfId="6"/>
-    <tableColumn id="3" name="Fin" dataDxfId="5"/>
-    <tableColumn id="4" name="Durée" dataDxfId="4">
+    <tableColumn id="1" name="Date" dataDxfId="6"/>
+    <tableColumn id="2" name="Début" dataDxfId="5"/>
+    <tableColumn id="3" name="Fin" dataDxfId="4"/>
+    <tableColumn id="4" name="Durée" dataDxfId="3">
       <calculatedColumnFormula>SUM(Tableau1[[#This Row],[Fin]]-Tableau1[[#This Row],[Début]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Thème" dataDxfId="3"/>
-    <tableColumn id="7" name="Description" dataDxfId="2"/>
-    <tableColumn id="8" name="Sources" dataDxfId="1"/>
+    <tableColumn id="5" name="Thème" dataDxfId="2"/>
+    <tableColumn id="7" name="Description" dataDxfId="1"/>
+    <tableColumn id="8" name="Sources" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -575,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1103"/>
+  <dimension ref="A1:N1099"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,76 +626,114 @@
       <c r="A2" s="4">
         <v>44959</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="8">
+        <v>13.5625</v>
+      </c>
+      <c r="C2" s="8">
+        <v>13.583333333333334</v>
+      </c>
       <c r="D2" s="17">
         <f>SUM(Tableau1[[#This Row],[Fin]]-Tableau1[[#This Row],[Début]])</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+        <v>2.0833333333333925E-2</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>9</v>
+      </c>
       <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>44959</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="8">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.61458333333333337</v>
+      </c>
       <c r="D3" s="9">
         <f>SUM(Tableau1[[#This Row],[Fin]]-Tableau1[[#This Row],[Début]])</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44959</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="8">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="D4" s="9">
         <f>SUM(Tableau1[[#This Row],[Fin]]-Tableau1[[#This Row],[Début]])</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44959</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="8">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="D5" s="9">
         <f>SUM(Tableau1[[#This Row],[Fin]]-Tableau1[[#This Row],[Début]])</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>44959</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+        <v>44964</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="D6" s="9">
         <f>SUM(Tableau1[[#This Row],[Fin]]-Tableau1[[#This Row],[Début]])</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>44961</v>
-      </c>
+      <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="5"/>
       <c r="D7" s="9">
@@ -698,9 +745,7 @@
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>44961</v>
-      </c>
+      <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="9">
@@ -712,9 +757,7 @@
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>44962</v>
-      </c>
+      <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="5"/>
       <c r="D9" s="9">
@@ -13025,58 +13068,38 @@
     <row r="1088" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G1088" s="3"/>
     </row>
-    <row r="1089" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1089" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G1089" s="3"/>
     </row>
-    <row r="1090" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1090" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G1090" s="3"/>
     </row>
-    <row r="1091" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1091" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G1091" s="3"/>
     </row>
-    <row r="1092" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1092" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G1092" s="3"/>
     </row>
-    <row r="1093" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1093" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G1093" s="3"/>
     </row>
-    <row r="1094" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1094" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G1094" s="3"/>
     </row>
-    <row r="1095" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1095" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G1095" s="3"/>
     </row>
-    <row r="1096" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1096" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G1096" s="3"/>
     </row>
-    <row r="1097" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1097" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G1097" s="3"/>
     </row>
-    <row r="1098" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1098" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G1098" s="3"/>
     </row>
-    <row r="1099" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1099" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G1099" s="3"/>
-    </row>
-    <row r="1100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1100" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1101" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1102" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="1103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1103" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
@@ -13095,12 +13118,9 @@
       <formula>FLOOR(G9,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L10">
       <formula1>$A$1101:$A$1103</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1099">
-      <formula1>$A$1101:$A$1102</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Journal_de_travail/Sacha Jaccard/Journal de travail Sacha.xlsx
+++ b/Documentation/Journal_de_travail/Sacha Jaccard/Journal de travail Sacha.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Remplissage du journal de travail avec les heures que j'ai noté sur papier.</t>
+  </si>
+  <si>
+    <t>Modification des maquettes du site.</t>
   </si>
 </sst>
 </file>
@@ -587,7 +590,7 @@
   <dimension ref="A1:N1099"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,16 +735,26 @@
       </c>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="5"/>
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>44966</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.5625</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.61041666666666672</v>
+      </c>
       <c r="D7" s="9">
         <f>SUM(Tableau1[[#This Row],[Fin]]-Tableau1[[#This Row],[Début]])</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+        <v>4.7916666666666718E-2</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">

--- a/Documentation/Journal_de_travail/Sacha Jaccard/Journal de travail Sacha.xlsx
+++ b/Documentation/Journal_de_travail/Sacha Jaccard/Journal de travail Sacha.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Modification des maquettes du site.</t>
+  </si>
+  <si>
+    <t>Création du diagramme de flux.</t>
   </si>
 </sst>
 </file>
@@ -590,7 +593,7 @@
   <dimension ref="A1:N1099"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,15 +761,25 @@
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="7">
+        <v>44966</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.67013888888888884</v>
+      </c>
       <c r="D8" s="9">
         <f>SUM(Tableau1[[#This Row],[Fin]]-Tableau1[[#This Row],[Début]])</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+        <v>5.902777777777779E-2</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">

--- a/Documentation/Journal_de_travail/Sacha Jaccard/Journal de travail Sacha.xlsx
+++ b/Documentation/Journal_de_travail/Sacha Jaccard/Journal de travail Sacha.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Création du diagramme de flux.</t>
+  </si>
+  <si>
+    <t>Continuation du diagramme de flux.</t>
   </si>
 </sst>
 </file>
@@ -593,7 +596,7 @@
   <dimension ref="A1:N1099"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,16 +785,26 @@
       </c>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="5"/>
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>44978</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.67569444444444438</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.69652777777777775</v>
+      </c>
       <c r="D9" s="9">
         <f>SUM(Tableau1[[#This Row],[Fin]]-Tableau1[[#This Row],[Début]])</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -801,16 +814,26 @@
       <c r="M9" s="6"/>
       <c r="N9" s="12"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>44978</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.6972222222222223</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="D10" s="9">
         <f>SUM(Tableau1[[#This Row],[Fin]]-Tableau1[[#This Row],[Début]])</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+        <v>7.6388888888888618E-3</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>

--- a/Documentation/Journal_de_travail/Sacha Jaccard/Journal de travail Sacha.xlsx
+++ b/Documentation/Journal_de_travail/Sacha Jaccard/Journal de travail Sacha.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Maquettes</t>
   </si>
   <si>
     <t>Documentation</t>
@@ -84,6 +81,12 @@
   </si>
   <si>
     <t>Continuation du diagramme de flux.</t>
+  </si>
+  <si>
+    <t>Continuation des maquettes du site.</t>
+  </si>
+  <si>
+    <t>Création du use case.</t>
   </si>
 </sst>
 </file>
@@ -596,7 +599,7 @@
   <dimension ref="A1:N1099"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,10 +649,10 @@
         <v>2.0833333333333925E-2</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="18"/>
     </row>
@@ -671,7 +674,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -690,10 +693,10 @@
         <v>1.388888888888884E-2</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -712,10 +715,10 @@
         <v>3.125E-2</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="15"/>
     </row>
@@ -734,10 +737,10 @@
         <v>3.125E-2</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -756,10 +759,10 @@
         <v>4.7916666666666718E-2</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="12"/>
     </row>
@@ -778,10 +781,10 @@
         <v>5.902777777777779E-2</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -800,10 +803,10 @@
         <v>2.083333333333337E-2</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
@@ -829,10 +832,10 @@
         <v>7.6388888888888618E-3</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
@@ -843,53 +846,93 @@
       <c r="M10" s="6"/>
       <c r="N10" s="11"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="5"/>
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>44979</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.62152777777777779</v>
+      </c>
       <c r="D11" s="9">
         <f>SUM(Tableau1[[#This Row],[Fin]]-Tableau1[[#This Row],[Début]])</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="G11" s="11"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>44979</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.64374999999999993</v>
+      </c>
       <c r="D12" s="9">
         <f>SUM(Tableau1[[#This Row],[Fin]]-Tableau1[[#This Row],[Début]])</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+        <v>2.1527777777777701E-2</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>44979</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.64444444444444449</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.64722222222222225</v>
+      </c>
       <c r="D13" s="9">
         <f>SUM(Tableau1[[#This Row],[Fin]]-Tableau1[[#This Row],[Début]])</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+        <v>2.7777777777777679E-3</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="7">
+        <v>44979</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.6479166666666667</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.66875000000000007</v>
+      </c>
       <c r="D14" s="9">
         <f>SUM(Tableau1[[#This Row],[Fin]]-Tableau1[[#This Row],[Début]])</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">

--- a/Documentation/Journal_de_travail/Sacha Jaccard/Journal de travail Sacha.xlsx
+++ b/Documentation/Journal_de_travail/Sacha Jaccard/Journal de travail Sacha.xlsx
@@ -921,11 +921,11 @@
         <v>0.6479166666666667</v>
       </c>
       <c r="C14" s="8">
-        <v>0.66875000000000007</v>
+        <v>0.6743055555555556</v>
       </c>
       <c r="D14" s="9">
         <f>SUM(Tableau1[[#This Row],[Fin]]-Tableau1[[#This Row],[Début]])</f>
-        <v>2.083333333333337E-2</v>
+        <v>2.6388888888888906E-2</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>7</v>

--- a/Documentation/Journal_de_travail/Sacha Jaccard/Journal de travail Sacha.xlsx
+++ b/Documentation/Journal_de_travail/Sacha Jaccard/Journal de travail Sacha.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Création du use case.</t>
+  </si>
+  <si>
+    <t>Création de la documentation du projet.</t>
   </si>
 </sst>
 </file>
@@ -599,7 +602,7 @@
   <dimension ref="A1:N1099"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,16 +938,26 @@
       </c>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>44979</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="D15" s="9">
         <f>SUM(Tableau1[[#This Row],[Fin]]-Tableau1[[#This Row],[Début]])</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+        <v>2.9861111111111227E-2</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">

--- a/Documentation/Journal_de_travail/Sacha Jaccard/Journal de travail Sacha.xlsx
+++ b/Documentation/Journal_de_travail/Sacha Jaccard/Journal de travail Sacha.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>Création de la documentation du projet.</t>
+  </si>
+  <si>
+    <t>Continuation de la documentation du projet.</t>
+  </si>
+  <si>
+    <t>Ajout de la page d'achat sur le Wireframe.</t>
+  </si>
+  <si>
+    <t>Finalisation de la page d'achat sur le Wireframe.</t>
   </si>
 </sst>
 </file>
@@ -602,7 +611,7 @@
   <dimension ref="A1:N1099"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,63 +969,109 @@
       </c>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>44985</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0.6777777777777777</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.6958333333333333</v>
+      </c>
       <c r="D16" s="9">
         <f>SUM(Tableau1[[#This Row],[Fin]]-Tableau1[[#This Row],[Début]])</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+        <v>1.8055555555555602E-2</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>44985</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0.69652777777777775</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="D17" s="9">
         <f>SUM(Tableau1[[#This Row],[Fin]]-Tableau1[[#This Row],[Début]])</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+        <v>8.3333333333334147E-3</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>44986</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="D18" s="9">
         <f>SUM(Tableau1[[#This Row],[Fin]]-Tableau1[[#This Row],[Début]])</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+        <v>3.819444444444442E-2</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>44986</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.65</v>
+      </c>
       <c r="D19" s="9">
         <f>SUM(Tableau1[[#This Row],[Fin]]-Tableau1[[#This Row],[Début]])</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+        <v>1.1111111111111072E-2</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="7">
+        <v>44986</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0.65069444444444446</v>
+      </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9">
         <f>SUM(Tableau1[[#This Row],[Fin]]-Tableau1[[#This Row],[Début]])</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="6"/>
+        <v>-0.65069444444444446</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="11"/>
       <c r="H20" s="6"/>

--- a/Documentation/Journal_de_travail/Sacha Jaccard/Journal de travail Sacha.xlsx
+++ b/Documentation/Journal_de_travail/Sacha Jaccard/Journal de travail Sacha.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Finalisation de la page d'achat sur le Wireframe.</t>
+  </si>
+  <si>
+    <t>Developpement</t>
+  </si>
+  <si>
+    <t>Rogner automatiquement les images du carousel.</t>
   </si>
 </sst>
 </file>
@@ -611,7 +617,7 @@
   <dimension ref="A1:N1099"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1063,7 @@
       </c>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>44986</v>
       </c>
@@ -1070,9 +1076,11 @@
         <v>-0.65069444444444446</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G20" s="11"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>

--- a/Documentation/Journal_de_travail/Sacha Jaccard/Journal de travail Sacha.xlsx
+++ b/Documentation/Journal_de_travail/Sacha Jaccard/Journal de travail Sacha.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>Création du footer avec Romain.</t>
+  </si>
+  <si>
+    <t>Prise de connaissance du code complet de Romain pour la suite avec son aide.</t>
+  </si>
+  <si>
+    <t>Ajout des analyses de sprints sur la doc et ajout des répértoires pour le dossier de réalisation physique.</t>
+  </si>
+  <si>
+    <t>Création de la page de basket.</t>
+  </si>
+  <si>
+    <t>Ajout de tous les schemas et des logiciels utilisé et leur version dans la documentation.</t>
   </si>
 </sst>
 </file>
@@ -628,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1099"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K22" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,52 +1227,94 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>44993</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0.6791666666666667</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="D26" s="9">
         <f>SUM(Tableau1[[#This Row],[Fin]]-Tableau1[[#This Row],[Début]])</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="15"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+        <v>2.5694444444444464E-2</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>44994</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0.5625</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0.60069444444444442</v>
+      </c>
       <c r="D27" s="9">
         <f>SUM(Tableau1[[#This Row],[Fin]]-Tableau1[[#This Row],[Début]])</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+        <v>3.819444444444442E-2</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+      <c r="A28" s="7">
+        <v>44999</v>
+      </c>
+      <c r="B28" s="8">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0.70624999999999993</v>
+      </c>
       <c r="D28" s="9">
         <f>SUM(Tableau1[[#This Row],[Fin]]-Tableau1[[#This Row],[Début]])</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+        <v>3.2638888888888773E-2</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+    <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>45000</v>
+      </c>
+      <c r="B29" s="8">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="D29" s="9">
         <f>SUM(Tableau1[[#This Row],[Fin]]-Tableau1[[#This Row],[Début]])</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">

--- a/Documentation/Journal_de_travail/Sacha Jaccard/Journal de travail Sacha.xlsx
+++ b/Documentation/Journal_de_travail/Sacha Jaccard/Journal de travail Sacha.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Ajout de tous les schemas et des logiciels utilisé et leur version dans la documentation.</t>
+  </si>
+  <si>
+    <t>Ajout dans la documentation des ajout de Romain suite à un problème technique.</t>
   </si>
 </sst>
 </file>
@@ -640,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1099"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K22" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,16 +1320,24 @@
       </c>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
+    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>45006</v>
+      </c>
+      <c r="B30" s="8">
+        <v>0.67013888888888884</v>
+      </c>
       <c r="C30" s="8"/>
       <c r="D30" s="9">
         <f>SUM(Tableau1[[#This Row],[Fin]]-Tableau1[[#This Row],[Début]])</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+        <v>-0.67013888888888884</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">

--- a/Documentation/Journal_de_travail/Sacha Jaccard/Journal de travail Sacha.xlsx
+++ b/Documentation/Journal_de_travail/Sacha Jaccard/Journal de travail Sacha.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>Ajout dans la documentation des ajout de Romain suite à un problème technique.</t>
+  </si>
+  <si>
+    <t>Finalisation de la documentation à l'exception de quelques zones que nous deverons remplir à la toute fin.</t>
+  </si>
+  <si>
+    <t>Aide de Romain avec le code de la page d'achat.</t>
+  </si>
+  <si>
+    <t>Aide de Romain avec le code de la page d'achat et série de teste de ma part.</t>
   </si>
 </sst>
 </file>
@@ -644,7 +653,7 @@
   <dimension ref="A1:N1099"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,10 +1336,12 @@
       <c r="B30" s="8">
         <v>0.67013888888888884</v>
       </c>
-      <c r="C30" s="8"/>
+      <c r="C30" s="8">
+        <v>0.69791666666666663</v>
+      </c>
       <c r="D30" s="9">
         <f>SUM(Tableau1[[#This Row],[Fin]]-Tableau1[[#This Row],[Début]])</f>
-        <v>-0.67013888888888884</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>7</v>
@@ -1338,43 +1349,81 @@
       <c r="F30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
+      <c r="G30" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>45007</v>
+      </c>
+      <c r="B31" s="8">
+        <v>0.60347222222222219</v>
+      </c>
+      <c r="C31" s="8">
+        <v>0.61319444444444449</v>
+      </c>
       <c r="D31" s="9">
         <f>SUM(Tableau1[[#This Row],[Fin]]-Tableau1[[#This Row],[Début]])</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="15"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
+        <v>9.7222222222222987E-3</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>45007</v>
+      </c>
+      <c r="B32" s="8">
+        <v>0.61388888888888882</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="D32" s="9">
         <f>SUM(Tableau1[[#This Row],[Fin]]-Tableau1[[#This Row],[Début]])</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="15"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+        <v>1.4583333333333393E-2</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>45007</v>
+      </c>
+      <c r="B33" s="8">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="D33" s="9">
         <f>SUM(Tableau1[[#This Row],[Fin]]-Tableau1[[#This Row],[Début]])</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="15"/>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
